--- a/Fertilizer_Near/Fertilizer_Near_ResultsTable.xlsx
+++ b/Fertilizer_Near/Fertilizer_Near_ResultsTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinstewart/Dropbox/Collaborations/TobyKiers/Crop_Productivity_GCO/Analysis/Crop_GCO/Fertilizer_Near/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A22E7-2ED8-3848-8782-A10E236DF156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F667B06-E667-3245-8374-B99CF11CD609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15440" xr2:uid="{CD627C62-3E29-EF4E-90FD-9C895E4215D2}"/>
+    <workbookView xWindow="200" yWindow="560" windowWidth="26840" windowHeight="15440" xr2:uid="{CD627C62-3E29-EF4E-90FD-9C895E4215D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EC9C83-10DE-394A-940C-432D969ECA4E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="C8" activeCellId="1" sqref="C5:C6 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,11 +490,11 @@
       <c r="D2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2" s="2" t="b">
         <f>C2&gt;0</f>
         <v>1</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" s="2" t="b">
         <f>D2&gt;0</f>
         <v>1</v>
       </c>
@@ -516,11 +516,11 @@
       <c r="D3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E3" s="2" t="b">
         <f t="shared" ref="E3:E13" si="0">C3&gt;0</f>
         <v>1</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3" s="2" t="b">
         <f t="shared" ref="F3:F13" si="1">D3&gt;0</f>
         <v>1</v>
       </c>
@@ -542,11 +542,11 @@
       <c r="D4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="E4" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -620,11 +620,11 @@
       <c r="D7">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
+      <c r="E7" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -672,11 +672,11 @@
       <c r="D9">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="E9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
+      <c r="E9" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -698,11 +698,11 @@
       <c r="D10">
         <v>1.2E-2</v>
       </c>
-      <c r="E10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
+      <c r="E10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -724,11 +724,11 @@
       <c r="D11">
         <v>1.6E-2</v>
       </c>
-      <c r="E11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
+      <c r="E11" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -747,11 +747,11 @@
       <c r="C12">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="E12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
+      <c r="E12" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -773,11 +773,11 @@
       <c r="D13">
         <v>0.04</v>
       </c>
-      <c r="E13" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
+      <c r="E13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
